--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.664768333333334</v>
+        <v>20.408218</v>
       </c>
       <c r="H2">
-        <v>19.994305</v>
+        <v>61.224654</v>
       </c>
       <c r="I2">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="J2">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.135193666666667</v>
+        <v>2.113523666666667</v>
       </c>
       <c r="N2">
-        <v>3.405581</v>
+        <v>6.340571000000001</v>
       </c>
       <c r="O2">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="P2">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="Q2">
-        <v>7.565802801800556</v>
+        <v>43.13325173749268</v>
       </c>
       <c r="R2">
-        <v>68.09222521620501</v>
+        <v>388.1992656374341</v>
       </c>
       <c r="S2">
-        <v>0.01001992911584523</v>
+        <v>0.02938971064232124</v>
       </c>
       <c r="T2">
-        <v>0.01001992911584523</v>
+        <v>0.02938971064232124</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.664768333333334</v>
+        <v>20.408218</v>
       </c>
       <c r="H3">
-        <v>19.994305</v>
+        <v>61.224654</v>
       </c>
       <c r="I3">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="J3">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.862098</v>
       </c>
       <c r="O3">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="P3">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="Q3">
-        <v>15.24476448354334</v>
+        <v>46.68106397378801</v>
       </c>
       <c r="R3">
-        <v>137.20288035189</v>
+        <v>420.129575764092</v>
       </c>
       <c r="S3">
-        <v>0.02018972256011039</v>
+        <v>0.03180708403379621</v>
       </c>
       <c r="T3">
-        <v>0.02018972256011039</v>
+        <v>0.03180708403379621</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.664768333333334</v>
+        <v>20.408218</v>
       </c>
       <c r="H4">
-        <v>19.994305</v>
+        <v>61.224654</v>
       </c>
       <c r="I4">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="J4">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8212579999999999</v>
+        <v>1.164746666666667</v>
       </c>
       <c r="N4">
-        <v>2.463774</v>
+        <v>3.49424</v>
       </c>
       <c r="O4">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059967</v>
       </c>
       <c r="P4">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059966</v>
       </c>
       <c r="Q4">
-        <v>5.473494311896666</v>
+        <v>23.77040388810667</v>
       </c>
       <c r="R4">
-        <v>49.26144880707</v>
+        <v>213.93363499296</v>
       </c>
       <c r="S4">
-        <v>0.007248936624165585</v>
+        <v>0.01619644390305298</v>
       </c>
       <c r="T4">
-        <v>0.007248936624165585</v>
+        <v>0.01619644390305298</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.664768333333334</v>
+        <v>20.408218</v>
       </c>
       <c r="H5">
-        <v>19.994305</v>
+        <v>61.224654</v>
       </c>
       <c r="I5">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="J5">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.138589666666667</v>
+        <v>2.406253666666667</v>
       </c>
       <c r="N5">
-        <v>9.415769000000001</v>
+        <v>7.218761</v>
       </c>
       <c r="O5">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="P5">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="Q5">
-        <v>20.91797302172722</v>
+        <v>49.10734939263267</v>
       </c>
       <c r="R5">
-        <v>188.261757195545</v>
+        <v>441.966144533694</v>
       </c>
       <c r="S5">
-        <v>0.02770315489520669</v>
+        <v>0.03346028251810026</v>
       </c>
       <c r="T5">
-        <v>0.02770315489520669</v>
+        <v>0.03346028251810026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>141.767772</v>
       </c>
       <c r="I6">
-        <v>0.4620233187619071</v>
+        <v>0.2566851044076959</v>
       </c>
       <c r="J6">
-        <v>0.4620233187619071</v>
+        <v>0.256685104407696</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.135193666666667</v>
+        <v>2.113523666666667</v>
       </c>
       <c r="N6">
-        <v>3.405581</v>
+        <v>6.340571000000001</v>
       </c>
       <c r="O6">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="P6">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="Q6">
-        <v>53.64462563728132</v>
+        <v>99.87651376420133</v>
       </c>
       <c r="R6">
-        <v>482.8016307355319</v>
+        <v>898.8886238778119</v>
       </c>
       <c r="S6">
-        <v>0.07104538148994463</v>
+        <v>0.06805287617446674</v>
       </c>
       <c r="T6">
-        <v>0.07104538148994463</v>
+        <v>0.06805287617446676</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>141.767772</v>
       </c>
       <c r="I7">
-        <v>0.4620233187619071</v>
+        <v>0.2566851044076959</v>
       </c>
       <c r="J7">
-        <v>0.4620233187619071</v>
+        <v>0.256685104407696</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>6.862098</v>
       </c>
       <c r="O7">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="P7">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="Q7">
         <v>108.091593856184</v>
@@ -883,10 +883,10 @@
         <v>972.8243447056558</v>
       </c>
       <c r="S7">
-        <v>0.1431533621521221</v>
+        <v>0.07365038661203475</v>
       </c>
       <c r="T7">
-        <v>0.1431533621521221</v>
+        <v>0.07365038661203477</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>141.767772</v>
       </c>
       <c r="I8">
-        <v>0.4620233187619071</v>
+        <v>0.2566851044076959</v>
       </c>
       <c r="J8">
-        <v>0.4620233187619071</v>
+        <v>0.256685104407696</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8212579999999999</v>
+        <v>1.164746666666667</v>
       </c>
       <c r="N8">
-        <v>2.463774</v>
+        <v>3.49424</v>
       </c>
       <c r="O8">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059967</v>
       </c>
       <c r="P8">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059966</v>
       </c>
       <c r="Q8">
-        <v>38.80930563239199</v>
+        <v>55.04117995925332</v>
       </c>
       <c r="R8">
-        <v>349.2837506915279</v>
+        <v>495.3706196332799</v>
       </c>
       <c r="S8">
-        <v>0.05139791528523528</v>
+        <v>0.03750341760132781</v>
       </c>
       <c r="T8">
-        <v>0.05139791528523528</v>
+        <v>0.03750341760132781</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>141.767772</v>
       </c>
       <c r="I9">
-        <v>0.4620233187619071</v>
+        <v>0.2566851044076959</v>
       </c>
       <c r="J9">
-        <v>0.4620233187619071</v>
+        <v>0.256685104407696</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.138589666666667</v>
+        <v>2.406253666666667</v>
       </c>
       <c r="N9">
-        <v>9.415769000000001</v>
+        <v>7.218761</v>
       </c>
       <c r="O9">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="P9">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="Q9">
-        <v>148.3169547551853</v>
+        <v>113.7097403967213</v>
       </c>
       <c r="R9">
-        <v>1334.852592796668</v>
+        <v>1023.387663570492</v>
       </c>
       <c r="S9">
-        <v>0.1964266598346051</v>
+        <v>0.07747842401986661</v>
       </c>
       <c r="T9">
-        <v>0.1964266598346052</v>
+        <v>0.07747842401986663</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.37233166666667</v>
+        <v>85.307233</v>
       </c>
       <c r="H10">
-        <v>82.116995</v>
+        <v>255.921699</v>
       </c>
       <c r="I10">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="J10">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.135193666666667</v>
+        <v>2.113523666666667</v>
       </c>
       <c r="N10">
-        <v>3.405581</v>
+        <v>6.340571000000001</v>
       </c>
       <c r="O10">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="P10">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="Q10">
-        <v>31.07289754989944</v>
+        <v>180.2988558833477</v>
       </c>
       <c r="R10">
-        <v>279.656077949095</v>
+        <v>1622.689702950129</v>
       </c>
       <c r="S10">
-        <v>0.04115204149912772</v>
+        <v>0.1228502603003887</v>
       </c>
       <c r="T10">
-        <v>0.04115204149912772</v>
+        <v>0.1228502603003887</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.37233166666667</v>
+        <v>85.307233</v>
       </c>
       <c r="H11">
-        <v>82.116995</v>
+        <v>255.921699</v>
       </c>
       <c r="I11">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="J11">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.862098</v>
       </c>
       <c r="O11">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="P11">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="Q11">
-        <v>62.61054079505667</v>
+        <v>195.128864318278</v>
       </c>
       <c r="R11">
-        <v>563.49486715551</v>
+        <v>1756.159778864502</v>
       </c>
       <c r="S11">
-        <v>0.08291957867602659</v>
+        <v>0.1329549855220888</v>
       </c>
       <c r="T11">
-        <v>0.08291957867602659</v>
+        <v>0.1329549855220888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.37233166666667</v>
+        <v>85.307233</v>
       </c>
       <c r="H12">
-        <v>82.116995</v>
+        <v>255.921699</v>
       </c>
       <c r="I12">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="J12">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8212579999999999</v>
+        <v>1.164746666666667</v>
       </c>
       <c r="N12">
-        <v>2.463774</v>
+        <v>3.49424</v>
       </c>
       <c r="O12">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059967</v>
       </c>
       <c r="P12">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059966</v>
       </c>
       <c r="Q12">
-        <v>22.47974635990333</v>
+        <v>99.36131527930665</v>
       </c>
       <c r="R12">
-        <v>202.31771723913</v>
+        <v>894.2518375137599</v>
       </c>
       <c r="S12">
-        <v>0.02977152206700468</v>
+        <v>0.06770183530032707</v>
       </c>
       <c r="T12">
-        <v>0.02977152206700468</v>
+        <v>0.06770183530032706</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.37233166666667</v>
+        <v>85.307233</v>
       </c>
       <c r="H13">
-        <v>82.116995</v>
+        <v>255.921699</v>
       </c>
       <c r="I13">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="J13">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.138589666666667</v>
+        <v>2.406253666666667</v>
       </c>
       <c r="N13">
-        <v>9.415769000000001</v>
+        <v>7.218761</v>
       </c>
       <c r="O13">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="P13">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="Q13">
-        <v>85.91051732157278</v>
+        <v>205.2708421994377</v>
       </c>
       <c r="R13">
-        <v>773.1946558941551</v>
+        <v>1847.437579794939</v>
       </c>
       <c r="S13">
-        <v>0.1137773897124163</v>
+        <v>0.1398654266147787</v>
       </c>
       <c r="T13">
-        <v>0.1137773897124163</v>
+        <v>0.1398654266147787</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.98736333333333</v>
+        <v>31.12938966666666</v>
       </c>
       <c r="H14">
-        <v>62.96209</v>
+        <v>93.38816899999999</v>
       </c>
       <c r="I14">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="J14">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.135193666666667</v>
+        <v>2.113523666666667</v>
       </c>
       <c r="N14">
-        <v>3.405581</v>
+        <v>6.340571000000001</v>
       </c>
       <c r="O14">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="P14">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="Q14">
-        <v>23.82472193603222</v>
+        <v>65.79270178938879</v>
       </c>
       <c r="R14">
-        <v>214.42249742429</v>
+        <v>592.134316104499</v>
       </c>
       <c r="S14">
-        <v>0.03155276859012942</v>
+        <v>0.04482918375212368</v>
       </c>
       <c r="T14">
-        <v>0.03155276859012942</v>
+        <v>0.04482918375212368</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.98736333333333</v>
+        <v>31.12938966666666</v>
       </c>
       <c r="H15">
-        <v>62.96209</v>
+        <v>93.38816899999999</v>
       </c>
       <c r="I15">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="J15">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>6.862098</v>
       </c>
       <c r="O15">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="P15">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="Q15">
-        <v>48.00578131831334</v>
+        <v>71.20430752428466</v>
       </c>
       <c r="R15">
-        <v>432.05203186482</v>
+        <v>640.8387677185619</v>
       </c>
       <c r="S15">
-        <v>0.06357746012700619</v>
+        <v>0.04851649041814694</v>
       </c>
       <c r="T15">
-        <v>0.06357746012700619</v>
+        <v>0.04851649041814694</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.98736333333333</v>
+        <v>31.12938966666666</v>
       </c>
       <c r="H16">
-        <v>62.96209</v>
+        <v>93.38816899999999</v>
       </c>
       <c r="I16">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="J16">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8212579999999999</v>
+        <v>1.164746666666667</v>
       </c>
       <c r="N16">
-        <v>2.463774</v>
+        <v>3.49424</v>
       </c>
       <c r="O16">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059967</v>
       </c>
       <c r="P16">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059966</v>
       </c>
       <c r="Q16">
-        <v>17.23604003640667</v>
+        <v>36.25785284961778</v>
       </c>
       <c r="R16">
-        <v>155.12436032766</v>
+        <v>326.3206756465599</v>
       </c>
       <c r="S16">
-        <v>0.02282690996936426</v>
+        <v>0.02470501900128879</v>
       </c>
       <c r="T16">
-        <v>0.02282690996936426</v>
+        <v>0.02470501900128878</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.98736333333333</v>
+        <v>31.12938966666666</v>
       </c>
       <c r="H17">
-        <v>62.96209</v>
+        <v>93.38816899999999</v>
       </c>
       <c r="I17">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="J17">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.138589666666667</v>
+        <v>2.406253666666667</v>
       </c>
       <c r="N17">
-        <v>9.415769000000001</v>
+        <v>7.218761</v>
       </c>
       <c r="O17">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="P17">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="Q17">
-        <v>65.8707216885789</v>
+        <v>74.90520802651211</v>
       </c>
       <c r="R17">
-        <v>592.8364951972101</v>
+        <v>674.1468722386089</v>
       </c>
       <c r="S17">
-        <v>0.08723726740168983</v>
+        <v>0.05103817358589062</v>
       </c>
       <c r="T17">
-        <v>0.08723726740168984</v>
+        <v>0.05103817358589061</v>
       </c>
     </row>
   </sheetData>
